--- a/Pusulam/Dosyalar/SinavTemplate/UNITETARAMATASLAK.xlsx
+++ b/Pusulam/Dosyalar/SinavTemplate/UNITETARAMATASLAK.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaser.dursun\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C50AD8-0D60-41C7-A535-A742B40C0FA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="2655" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Soru Özellikleri" sheetId="1" r:id="rId1"/>
@@ -22,18 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>Ders ID</t>
-  </si>
-  <si>
-    <t>Kazanım ID</t>
-  </si>
-  <si>
-    <t>Puan Değeri</t>
-  </si>
-  <si>
-    <t>Soru No</t>
-  </si>
-  <si>
     <t>TR2203002002</t>
   </si>
   <si>
@@ -53,13 +35,25 @@
   </si>
   <si>
     <t>HY2201001009</t>
+  </si>
+  <si>
+    <t>Soru_No</t>
+  </si>
+  <si>
+    <t>Ders_ID</t>
+  </si>
+  <si>
+    <t>Kazanım_ID</t>
+  </si>
+  <si>
+    <t>Puan_Degeri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,44 +408,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -459,13 +453,13 @@
         <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -473,13 +467,13 @@
         <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -487,13 +481,13 @@
         <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -501,13 +495,13 @@
         <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -515,13 +509,13 @@
         <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -529,13 +523,13 @@
         <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -543,13 +537,13 @@
         <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -557,7 +551,7 @@
         <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
         <v>40</v>
